--- a/biology/Médecine/Hôpital_du_Suroît/Hôpital_du_Suroît.xlsx
+++ b/biology/Médecine/Hôpital_du_Suroît/Hôpital_du_Suroît.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_du_Suro%C3%AEt</t>
+          <t>Hôpital_du_Suroît</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital du Suroît est un centre hospitalier situé à Salaberry-de-Valleyfield, au Québec.  Il a ouvert en 1904.
-On y retrouve 473 lits[1],[2] et plus de 2000 employés, dont près de 170 médecins[3].
+On y retrouve 473 lits, et plus de 2000 employés, dont près de 170 médecins.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_du_Suro%C3%AEt</t>
+          <t>Hôpital_du_Suroît</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Services offerts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Boutique
 Célébrations eucharistiques
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_du_Suro%C3%AEt</t>
+          <t>Hôpital_du_Suroît</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1904 a été fondé l'Hôtel-Dieu de Valleyfield par les sœurs de la Providence. En 1933 le bâtiment original fut démoli pour construire l'actuel pavillon Émilie-Gamelin, qui fut l'unique pavillon de l'hôpital jusqu'à la construction de l'annexe dans les années 1980. 
-En 1973 l'Hôtel-Dieu devient le Centre hospitalier de Valleyfield. En 1990 le centre hospitalier de Valleyfield devient le Centre hospitalier régional du Suroît (CHRS). L'année 2002 marque le réaménagement du bloc opératoire, du centre Mère-enfant et de l'urgence. Deux ans plus tard, en 2004, le Centre hospitalier régional du Suroît (CHRS) devient l'Hôpital du Suroît. Les Centres de santé et de services sociaux s’implantent au Québec et l’hôpital devient donc une entité du CSSS du Suroît. En 2014, le CSSS du Suroît devient le Centre intégré de santé et de services sociaux de la Montérégie-Ouest (CISSSMO)[4].
+En 1973 l'Hôtel-Dieu devient le Centre hospitalier de Valleyfield. En 1990 le centre hospitalier de Valleyfield devient le Centre hospitalier régional du Suroît (CHRS). L'année 2002 marque le réaménagement du bloc opératoire, du centre Mère-enfant et de l'urgence. Deux ans plus tard, en 2004, le Centre hospitalier régional du Suroît (CHRS) devient l'Hôpital du Suroît. Les Centres de santé et de services sociaux s’implantent au Québec et l’hôpital devient donc une entité du CSSS du Suroît. En 2014, le CSSS du Suroît devient le Centre intégré de santé et de services sociaux de la Montérégie-Ouest (CISSSMO).
 </t>
         </is>
       </c>
